--- a/server/asset/1109_import.xlsx
+++ b/server/asset/1109_import.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python_programs\demos\pandas_popu_demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\happymovie\server\asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF48A23-BC03-45BB-A05E-659CA4BE6C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E52F006-7A7B-4512-9C3B-F4F5D00D8F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,19 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="557">
   <si>
-    <t>movie_name</t>
-  </si>
-  <si>
     <t>starring</t>
-  </si>
-  <si>
-    <t>movie_runtime</t>
-  </si>
-  <si>
-    <t>movie_rating</t>
-  </si>
-  <si>
-    <t>movie_likability</t>
   </si>
   <si>
     <t>have_seen</t>
@@ -1692,6 +1680,22 @@
   </si>
   <si>
     <t>genre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>runtime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rating</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>likability</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1700,7 +1704,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1771,7 +1775,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2080,7 +2084,7 @@
   <dimension ref="A1:J230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2090,32 +2094,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2123,13 +2127,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>91</v>
@@ -2141,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J2" s="2">
         <v>44504.419456018521</v>
@@ -2152,13 +2156,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>156</v>
@@ -2170,7 +2174,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J3" s="2">
         <v>44504.419456018521</v>
@@ -2181,13 +2185,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>88</v>
@@ -2199,7 +2203,7 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J4" s="2">
         <v>44504.419456018521</v>
@@ -2210,13 +2214,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>139</v>
@@ -2228,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J5" s="2">
         <v>44504.419456018521</v>
@@ -2239,13 +2243,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>117</v>
@@ -2257,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J6" s="2">
         <v>44504.419456018521</v>
@@ -2268,13 +2272,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>127</v>
@@ -2286,7 +2290,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J7" s="2">
         <v>44504.419456018521</v>
@@ -2297,13 +2301,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>92</v>
@@ -2315,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J8" s="2">
         <v>44504.419456018521</v>
@@ -2326,13 +2330,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>97</v>
@@ -2344,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J9" s="2">
         <v>44504.419456018521</v>
@@ -2355,13 +2359,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>128</v>
@@ -2373,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J10" s="2">
         <v>44504.419456018521</v>
@@ -2384,13 +2388,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>104</v>
@@ -2402,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J11" s="2">
         <v>44504.419456018521</v>
@@ -2413,13 +2417,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>109</v>
@@ -2431,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J12" s="2">
         <v>44504.419456018521</v>
@@ -2442,13 +2446,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E13">
         <v>126</v>
@@ -2460,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J13" s="2">
         <v>44504.419456018521</v>
@@ -2471,13 +2475,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>116</v>
@@ -2489,10 +2493,10 @@
         <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J14" s="2">
         <v>44504.419456018521</v>
@@ -2503,13 +2507,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E15">
         <v>87</v>
@@ -2521,7 +2525,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J15" s="2">
         <v>44504.419456018521</v>
@@ -2532,13 +2536,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <v>106</v>
@@ -2550,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J16" s="2">
         <v>44504.419456018521</v>
@@ -2561,13 +2565,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>130</v>
@@ -2579,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J17" s="2">
         <v>44504.419456018521</v>
@@ -2590,13 +2594,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E18">
         <v>108</v>
@@ -2608,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J18" s="2">
         <v>44504.419456018521</v>
@@ -2619,13 +2623,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E19">
         <v>137</v>
@@ -2637,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J19" s="2">
         <v>44504.419456018521</v>
@@ -2648,13 +2652,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>95</v>
@@ -2666,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J20" s="2">
         <v>44504.419456018521</v>
@@ -2677,13 +2681,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E21">
         <v>125</v>
@@ -2695,7 +2699,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J21" s="2">
         <v>44504.419456018521</v>
@@ -2706,13 +2710,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E22">
         <v>138</v>
@@ -2724,7 +2728,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J22" s="2">
         <v>44504.419456018521</v>
@@ -2735,13 +2739,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E23">
         <v>93</v>
@@ -2753,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J23" s="2">
         <v>44504.419456018521</v>
@@ -2764,13 +2768,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E24">
         <v>105</v>
@@ -2782,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J24" s="2">
         <v>44504.419456018521</v>
@@ -2793,13 +2797,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E25">
         <v>143</v>
@@ -2811,7 +2815,7 @@
         <v>6</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J25" s="2">
         <v>44504.419456018521</v>
@@ -2822,13 +2826,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E26">
         <v>189</v>
@@ -2840,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J26" s="2">
         <v>44504.419456018521</v>
@@ -2851,13 +2855,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E27">
         <v>134</v>
@@ -2869,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J27" s="2">
         <v>44504.419456018521</v>
@@ -2880,13 +2884,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E28">
         <v>140</v>
@@ -2898,7 +2902,7 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J28" s="2">
         <v>44504.419456018521</v>
@@ -2909,13 +2913,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E29">
         <v>101</v>
@@ -2927,7 +2931,7 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J29" s="2">
         <v>44504.419456018521</v>
@@ -2938,13 +2942,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E30">
         <v>116</v>
@@ -2956,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J30" s="2">
         <v>44504.419456018521</v>
@@ -2967,13 +2971,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E31">
         <v>158</v>
@@ -2985,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J31" s="2">
         <v>44504.419456018521</v>
@@ -2996,7 +3000,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E32">
         <v>95</v>
@@ -3008,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J32" s="2">
         <v>44504.419456018521</v>
@@ -3019,13 +3023,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E33">
         <v>118</v>
@@ -3037,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J33" s="2">
         <v>44504.419456018521</v>
@@ -3048,13 +3052,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D34" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E34">
         <v>122</v>
@@ -3066,7 +3070,7 @@
         <v>7</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J34" s="2">
         <v>44504.419456018521</v>
@@ -3077,13 +3081,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E35">
         <v>107</v>
@@ -3095,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J35" s="2">
         <v>44504.419456018521</v>
@@ -3106,13 +3110,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E36">
         <v>115</v>
@@ -3124,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J36" s="2">
         <v>44504.419456018521</v>
@@ -3135,13 +3139,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E37">
         <v>96</v>
@@ -3153,7 +3157,7 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J37" s="2">
         <v>44504.419456018521</v>
@@ -3164,13 +3168,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D38" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E38">
         <v>101</v>
@@ -3182,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J38" s="2">
         <v>44504.419456018521</v>
@@ -3193,13 +3197,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E39">
         <v>111</v>
@@ -3211,7 +3215,7 @@
         <v>8</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J39" s="2">
         <v>44504.419456018521</v>
@@ -3222,13 +3226,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D40" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E40">
         <v>108</v>
@@ -3240,7 +3244,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J40" s="2">
         <v>44504.419456018521</v>
@@ -3251,13 +3255,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E41">
         <v>142</v>
@@ -3269,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J41" s="2">
         <v>44504.419456018521</v>
@@ -3280,13 +3284,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D42" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E42">
         <v>139</v>
@@ -3298,7 +3302,7 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J42" s="2">
         <v>44504.419456018521</v>
@@ -3309,13 +3313,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E43">
         <v>87</v>
@@ -3327,7 +3331,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J43" s="2">
         <v>44504.419456018521</v>
@@ -3338,13 +3342,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D44" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E44">
         <v>100</v>
@@ -3356,7 +3360,7 @@
         <v>2</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J44" s="2">
         <v>44504.419456018521</v>
@@ -3367,13 +3371,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C45" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D45" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E45">
         <v>102</v>
@@ -3385,7 +3389,7 @@
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J45" s="2">
         <v>44504.419456018521</v>
@@ -3396,13 +3400,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C46" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D46" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E46">
         <v>118</v>
@@ -3414,7 +3418,7 @@
         <v>9</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J46" s="2">
         <v>44504.419456018521</v>
@@ -3425,13 +3429,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C47" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D47" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E47">
         <v>100</v>
@@ -3443,7 +3447,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J47" s="2">
         <v>44504.419456018521</v>
@@ -3454,13 +3458,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C48" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D48" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E48">
         <v>102</v>
@@ -3472,7 +3476,7 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J48" s="2">
         <v>44504.419456018521</v>
@@ -3483,7 +3487,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E49">
         <v>98</v>
@@ -3495,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J49" s="2">
         <v>44504.419456018521</v>
@@ -3506,13 +3510,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C50" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D50" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E50">
         <v>140</v>
@@ -3524,7 +3528,7 @@
         <v>8</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J50" s="2">
         <v>44504.419456018521</v>
@@ -3535,13 +3539,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C51" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E51">
         <v>130</v>
@@ -3553,7 +3557,7 @@
         <v>6</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J51" s="2">
         <v>44504.419456018521</v>
@@ -3564,13 +3568,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C52" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D52" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E52">
         <v>105</v>
@@ -3582,7 +3586,7 @@
         <v>8</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J52" s="2">
         <v>44504.419456018521</v>
@@ -3593,13 +3597,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C53" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D53" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E53">
         <v>151</v>
@@ -3611,7 +3615,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J53" s="2">
         <v>44504.419456018521</v>
@@ -3622,13 +3626,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C54" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D54" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E54">
         <v>122</v>
@@ -3640,7 +3644,7 @@
         <v>6</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J54" s="2">
         <v>44504.419456018521</v>
@@ -3651,13 +3655,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C55" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D55" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E55">
         <v>119</v>
@@ -3669,7 +3673,7 @@
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J55" s="2">
         <v>44504.419456018521</v>
@@ -3680,13 +3684,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C56" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D56" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E56">
         <v>88</v>
@@ -3698,7 +3702,7 @@
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J56" s="2">
         <v>44504.419456018521</v>
@@ -3709,13 +3713,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C57" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D57" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E57">
         <v>110</v>
@@ -3727,7 +3731,7 @@
         <v>6</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J57" s="2">
         <v>44504.419456018521</v>
@@ -3738,13 +3742,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C58" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D58" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E58">
         <v>139</v>
@@ -3756,7 +3760,7 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J58" s="2">
         <v>44504.419456018521</v>
@@ -3767,13 +3771,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C59" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D59" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E59">
         <v>96</v>
@@ -3785,7 +3789,7 @@
         <v>4</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J59" s="2">
         <v>44504.419456018521</v>
@@ -3796,13 +3800,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C60" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D60" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E60">
         <v>127</v>
@@ -3814,7 +3818,7 @@
         <v>5</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J60" s="2">
         <v>44504.419456018521</v>
@@ -3825,13 +3829,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C61" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D61" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E61">
         <v>129</v>
@@ -3843,7 +3847,7 @@
         <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J61" s="2">
         <v>44504.419456018521</v>
@@ -3854,13 +3858,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C62" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D62" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E62">
         <v>132</v>
@@ -3872,7 +3876,7 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J62" s="2">
         <v>44504.419456018521</v>
@@ -3883,13 +3887,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C63" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D63" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E63">
         <v>95</v>
@@ -3901,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J63" s="2">
         <v>44504.419456018521</v>
@@ -3912,13 +3916,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C64" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D64" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E64">
         <v>114</v>
@@ -3930,7 +3934,7 @@
         <v>7</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J64" s="2">
         <v>44504.419456018521</v>
@@ -3941,13 +3945,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C65" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D65" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E65">
         <v>91</v>
@@ -3959,7 +3963,7 @@
         <v>6</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J65" s="2">
         <v>44504.419456018521</v>
@@ -3970,13 +3974,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C66" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D66" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E66">
         <v>120</v>
@@ -3988,7 +3992,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J66" s="2">
         <v>44504.419456018521</v>
@@ -3999,13 +4003,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C67" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D67" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E67">
         <v>90</v>
@@ -4017,7 +4021,7 @@
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J67" s="2">
         <v>44504.419456018521</v>
@@ -4028,13 +4032,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C68" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D68" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E68">
         <v>110</v>
@@ -4046,7 +4050,7 @@
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J68" s="2">
         <v>44504.419456018521</v>
@@ -4057,13 +4061,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C69" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D69" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E69">
         <v>109</v>
@@ -4075,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J69" s="2">
         <v>44504.419456018521</v>
@@ -4086,13 +4090,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C70" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E70">
         <v>90</v>
@@ -4104,7 +4108,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J70" s="2">
         <v>44504.419456018521</v>
@@ -4115,13 +4119,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C71" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D71" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E71">
         <v>116</v>
@@ -4133,7 +4137,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J71" s="2">
         <v>44504.419456018521</v>
@@ -4144,13 +4148,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C72" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D72" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E72">
         <v>88</v>
@@ -4162,7 +4166,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J72" s="2">
         <v>44504.419456018521</v>
@@ -4173,13 +4177,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C73" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D73" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E73">
         <v>118</v>
@@ -4191,7 +4195,7 @@
         <v>6</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J73" s="2">
         <v>44504.419456018521</v>
@@ -4202,13 +4206,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C74" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D74" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E74">
         <v>104</v>
@@ -4220,7 +4224,7 @@
         <v>8</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J74" s="2">
         <v>44504.419456018521</v>
@@ -4231,7 +4235,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E75">
         <v>91</v>
@@ -4243,7 +4247,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J75" s="2">
         <v>44504.419456018521</v>
@@ -4254,13 +4258,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C76" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D76" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E76">
         <v>112</v>
@@ -4272,7 +4276,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J76" s="2">
         <v>44504.419456018521</v>
@@ -4283,13 +4287,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C77" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D77" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E77">
         <v>122</v>
@@ -4301,7 +4305,7 @@
         <v>7</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J77" s="2">
         <v>44504.419456018521</v>
@@ -4312,13 +4316,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C78" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D78" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E78">
         <v>163</v>
@@ -4330,7 +4334,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J78" s="2">
         <v>44504.419456018521</v>
@@ -4341,13 +4345,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C79" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D79" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E79">
         <v>108</v>
@@ -4359,7 +4363,7 @@
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J79" s="2">
         <v>44504.419456018521</v>
@@ -4370,13 +4374,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C80" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D80" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E80">
         <v>109</v>
@@ -4388,7 +4392,7 @@
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J80" s="2">
         <v>44504.419456018521</v>
@@ -4399,13 +4403,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C81" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D81" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E81">
         <v>90</v>
@@ -4417,7 +4421,7 @@
         <v>5</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J81" s="2">
         <v>44504.419456018521</v>
@@ -4428,13 +4432,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C82" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D82" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E82">
         <v>112</v>
@@ -4446,7 +4450,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J82" s="2">
         <v>44504.419456018521</v>
@@ -4457,13 +4461,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C83" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D83" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E83">
         <v>104</v>
@@ -4475,7 +4479,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J83" s="2">
         <v>44504.419456018521</v>
@@ -4486,13 +4490,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C84" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D84" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E84">
         <v>137</v>
@@ -4504,7 +4508,7 @@
         <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J84" s="2">
         <v>44504.419456018521</v>
@@ -4515,13 +4519,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C85" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D85" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E85">
         <v>123</v>
@@ -4533,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J85" s="2">
         <v>44504.419456018521</v>
@@ -4544,13 +4548,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C86" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D86" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E86">
         <v>95</v>
@@ -4562,7 +4566,7 @@
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J86" s="2">
         <v>44504.419456018521</v>
@@ -4573,13 +4577,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C87" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D87" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E87">
         <v>127</v>
@@ -4591,7 +4595,7 @@
         <v>1</v>
       </c>
       <c r="H87" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J87" s="2">
         <v>44504.419456018521</v>
@@ -4602,13 +4606,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C88" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D88" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E88">
         <v>113</v>
@@ -4620,7 +4624,7 @@
         <v>1</v>
       </c>
       <c r="H88" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J88" s="2">
         <v>44504.419456018521</v>
@@ -4631,13 +4635,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C89" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D89" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E89">
         <v>103</v>
@@ -4649,7 +4653,7 @@
         <v>4</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J89" s="2">
         <v>44504.419456018521</v>
@@ -4660,7 +4664,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E90">
         <v>91</v>
@@ -4672,7 +4676,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J90" s="2">
         <v>44504.419456018521</v>
@@ -4683,13 +4687,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C91" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D91" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E91">
         <v>102</v>
@@ -4701,7 +4705,7 @@
         <v>5</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J91" s="2">
         <v>44504.419456018521</v>
@@ -4712,13 +4716,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C92" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D92" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E92">
         <v>104</v>
@@ -4730,7 +4734,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J92" s="2">
         <v>44504.419456018521</v>
@@ -4741,7 +4745,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E93">
         <v>129</v>
@@ -4753,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J93" s="2">
         <v>44504.419456018521</v>
@@ -4764,13 +4768,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C94" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D94" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E94">
         <v>118</v>
@@ -4782,7 +4786,7 @@
         <v>7</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J94" s="2">
         <v>44504.419456018521</v>
@@ -4793,13 +4797,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C95" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D95" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E95">
         <v>122</v>
@@ -4811,7 +4815,7 @@
         <v>7</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J95" s="2">
         <v>44504.419456018521</v>
@@ -4822,13 +4826,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C96" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D96" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E96">
         <v>90</v>
@@ -4840,7 +4844,7 @@
         <v>7</v>
       </c>
       <c r="H96" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J96" s="2">
         <v>44504.419456018521</v>
@@ -4851,13 +4855,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C97" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D97" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E97">
         <v>102</v>
@@ -4869,7 +4873,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J97" s="2">
         <v>44504.419456018521</v>
@@ -4880,13 +4884,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C98" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D98" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E98">
         <v>98</v>
@@ -4898,7 +4902,7 @@
         <v>8</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J98" s="2">
         <v>44504.419456018521</v>
@@ -4909,13 +4913,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C99" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D99" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E99">
         <v>97</v>
@@ -4927,7 +4931,7 @@
         <v>9</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J99" s="2">
         <v>44504.419456018521</v>
@@ -4938,13 +4942,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C100" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D100" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E100">
         <v>121</v>
@@ -4956,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J100" s="2">
         <v>44504.419456018521</v>
@@ -4967,13 +4971,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C101" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D101" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E101">
         <v>108</v>
@@ -4985,7 +4989,7 @@
         <v>9</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J101" s="2">
         <v>44504.419456018521</v>
@@ -4996,13 +5000,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C102" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D102" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E102">
         <v>113</v>
@@ -5014,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J102" s="2">
         <v>44504.419456018521</v>
@@ -5025,13 +5029,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C103" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D103" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E103">
         <v>122</v>
@@ -5043,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J103" s="2">
         <v>44504.419456018521</v>
@@ -5054,13 +5058,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C104" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D104" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E104">
         <v>130</v>
@@ -5072,7 +5076,7 @@
         <v>6</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J104" s="2">
         <v>44504.419456018521</v>
@@ -5083,13 +5087,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C105" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D105" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E105">
         <v>117</v>
@@ -5101,7 +5105,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J105" s="2">
         <v>44504.419456018521</v>
@@ -5112,13 +5116,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C106" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D106" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E106">
         <v>104</v>
@@ -5130,7 +5134,7 @@
         <v>1</v>
       </c>
       <c r="H106" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J106" s="2">
         <v>44504.419456018521</v>
@@ -5141,13 +5145,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C107" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D107" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E107">
         <v>87</v>
@@ -5159,7 +5163,7 @@
         <v>8</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J107" s="2">
         <v>44504.419456018521</v>
@@ -5170,13 +5174,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C108" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D108" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E108">
         <v>132</v>
@@ -5188,7 +5192,7 @@
         <v>9</v>
       </c>
       <c r="H108" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J108" s="2">
         <v>44504.419456018521</v>
@@ -5199,13 +5203,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C109" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D109" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E109">
         <v>98</v>
@@ -5217,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J109" s="2">
         <v>44504.419456018521</v>
@@ -5228,13 +5232,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C110" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D110" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E110">
         <v>104</v>
@@ -5246,7 +5250,7 @@
         <v>9</v>
       </c>
       <c r="H110" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J110" s="2">
         <v>44504.41946759259</v>
@@ -5257,13 +5261,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C111" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D111" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E111">
         <v>139</v>
@@ -5275,7 +5279,7 @@
         <v>8</v>
       </c>
       <c r="H111" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J111" s="2">
         <v>44504.41946759259</v>
@@ -5286,13 +5290,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C112" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D112" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E112">
         <v>138</v>
@@ -5304,7 +5308,7 @@
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J112" s="2">
         <v>44504.41946759259</v>
@@ -5315,13 +5319,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C113" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D113" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E113">
         <v>126</v>
@@ -5333,7 +5337,7 @@
         <v>6</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J113" s="2">
         <v>44504.41946759259</v>
@@ -5344,13 +5348,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C114" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D114" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E114">
         <v>92</v>
@@ -5362,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="H114" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J114" s="2">
         <v>44504.41946759259</v>
@@ -5373,13 +5377,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C115" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D115" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E115">
         <v>143</v>
@@ -5391,7 +5395,7 @@
         <v>1</v>
       </c>
       <c r="H115" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J115" s="2">
         <v>44504.41946759259</v>
@@ -5402,13 +5406,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C116" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D116" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E116">
         <v>126</v>
@@ -5420,7 +5424,7 @@
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J116" s="2">
         <v>44504.41946759259</v>
@@ -5431,13 +5435,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C117" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D117" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E117">
         <v>126</v>
@@ -5449,7 +5453,7 @@
         <v>1</v>
       </c>
       <c r="H117" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J117" s="2">
         <v>44504.41946759259</v>
@@ -5460,13 +5464,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C118" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D118" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E118">
         <v>103</v>
@@ -5478,7 +5482,7 @@
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J118" s="2">
         <v>44504.41946759259</v>
@@ -5489,13 +5493,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C119" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D119" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E119">
         <v>99</v>
@@ -5507,7 +5511,7 @@
         <v>1</v>
       </c>
       <c r="H119" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J119" s="2">
         <v>44504.41946759259</v>
@@ -5518,13 +5522,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C120" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D120" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E120">
         <v>120</v>
@@ -5536,7 +5540,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J120" s="2">
         <v>44504.41946759259</v>
@@ -5547,13 +5551,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C121" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D121" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E121">
         <v>129</v>
@@ -5565,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J121" s="2">
         <v>44504.41946759259</v>
@@ -5576,13 +5580,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C122" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D122" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E122">
         <v>130</v>
@@ -5594,7 +5598,7 @@
         <v>8</v>
       </c>
       <c r="H122" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J122" s="2">
         <v>44504.41946759259</v>
@@ -5605,13 +5609,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C123" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D123" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E123">
         <v>134</v>
@@ -5623,7 +5627,7 @@
         <v>1</v>
       </c>
       <c r="H123" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J123" s="2">
         <v>44504.41946759259</v>
@@ -5634,13 +5638,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C124" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D124" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E124">
         <v>104</v>
@@ -5652,7 +5656,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J124" s="2">
         <v>44504.41946759259</v>
@@ -5663,13 +5667,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C125" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D125" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E125">
         <v>109</v>
@@ -5681,7 +5685,7 @@
         <v>7</v>
       </c>
       <c r="H125" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J125" s="2">
         <v>44504.41946759259</v>
@@ -5692,13 +5696,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C126" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D126" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E126">
         <v>117</v>
@@ -5710,7 +5714,7 @@
         <v>1</v>
       </c>
       <c r="H126" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J126" s="2">
         <v>44504.41946759259</v>
@@ -5721,13 +5725,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C127" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D127" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E127">
         <v>103</v>
@@ -5739,7 +5743,7 @@
         <v>8</v>
       </c>
       <c r="H127" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J127" s="2">
         <v>44504.41946759259</v>
@@ -5750,13 +5754,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C128" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D128" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E128">
         <v>179</v>
@@ -5768,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="H128" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J128" s="2">
         <v>44504.41946759259</v>
@@ -5779,13 +5783,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C129" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D129" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E129">
         <v>128</v>
@@ -5797,7 +5801,7 @@
         <v>1</v>
       </c>
       <c r="H129" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J129" s="2">
         <v>44504.41946759259</v>
@@ -5808,13 +5812,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C130" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D130" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E130">
         <v>128</v>
@@ -5826,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="H130" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J130" s="2">
         <v>44504.41946759259</v>
@@ -5837,7 +5841,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E131">
         <v>114</v>
@@ -5849,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J131" s="2">
         <v>44504.41946759259</v>
@@ -5860,13 +5864,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C132" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D132" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E132">
         <v>113</v>
@@ -5878,7 +5882,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J132" s="2">
         <v>44504.41946759259</v>
@@ -5889,13 +5893,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C133" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D133" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E133">
         <v>132</v>
@@ -5907,7 +5911,7 @@
         <v>1</v>
       </c>
       <c r="H133" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J133" s="2">
         <v>44504.41946759259</v>
@@ -5918,7 +5922,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E134">
         <v>122</v>
@@ -5930,7 +5934,7 @@
         <v>1</v>
       </c>
       <c r="H134" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J134" s="2">
         <v>44504.41946759259</v>
@@ -5941,7 +5945,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E135">
         <v>118</v>
@@ -5953,7 +5957,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J135" s="2">
         <v>44504.41946759259</v>
@@ -5964,13 +5968,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C136" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D136" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E136">
         <v>127</v>
@@ -5982,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J136" s="2">
         <v>44504.41946759259</v>
@@ -5993,13 +5997,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C137" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D137" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E137">
         <v>98</v>
@@ -6011,7 +6015,7 @@
         <v>7</v>
       </c>
       <c r="H137" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J137" s="2">
         <v>44504.41946759259</v>
@@ -6022,13 +6026,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C138" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D138" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E138">
         <v>116</v>
@@ -6040,7 +6044,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J138" s="2">
         <v>44504.41946759259</v>
@@ -6051,13 +6055,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C139" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D139" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E139">
         <v>137</v>
@@ -6069,7 +6073,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J139" s="2">
         <v>44504.41946759259</v>
@@ -6080,13 +6084,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C140" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D140" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E140">
         <v>96</v>
@@ -6098,7 +6102,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J140" s="2">
         <v>44504.41946759259</v>
@@ -6109,13 +6113,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C141" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D141" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E141">
         <v>118</v>
@@ -6127,7 +6131,7 @@
         <v>9</v>
       </c>
       <c r="H141" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J141" s="2">
         <v>44504.41946759259</v>
@@ -6138,13 +6142,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C142" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D142" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E142">
         <v>106</v>
@@ -6156,7 +6160,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J142" s="2">
         <v>44504.41946759259</v>
@@ -6167,13 +6171,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C143" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D143" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E143">
         <v>133</v>
@@ -6185,7 +6189,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J143" s="2">
         <v>44504.41946759259</v>
@@ -6196,13 +6200,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C144" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D144" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E144">
         <v>112</v>
@@ -6214,7 +6218,7 @@
         <v>1</v>
       </c>
       <c r="H144" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J144" s="2">
         <v>44504.41946759259</v>
@@ -6225,13 +6229,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C145" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D145" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E145">
         <v>165</v>
@@ -6243,7 +6247,7 @@
         <v>4</v>
       </c>
       <c r="H145" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J145" s="2">
         <v>44504.41946759259</v>
@@ -6254,13 +6258,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C146" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D146" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E146">
         <v>90</v>
@@ -6272,7 +6276,7 @@
         <v>6</v>
       </c>
       <c r="H146" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J146" s="2">
         <v>44504.41946759259</v>
@@ -6283,13 +6287,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C147" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D147" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E147">
         <v>118</v>
@@ -6301,7 +6305,7 @@
         <v>6</v>
       </c>
       <c r="H147" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J147" s="2">
         <v>44504.41946759259</v>
@@ -6312,13 +6316,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C148" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E148">
         <v>169</v>
@@ -6330,7 +6334,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J148" s="2">
         <v>44504.41946759259</v>
@@ -6341,13 +6345,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C149" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D149" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E149">
         <v>117</v>
@@ -6359,7 +6363,7 @@
         <v>4</v>
       </c>
       <c r="H149" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J149" s="2">
         <v>44504.41946759259</v>
@@ -6370,13 +6374,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C150" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D150" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E150">
         <v>114</v>
@@ -6388,7 +6392,7 @@
         <v>1</v>
       </c>
       <c r="H150" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J150" s="2">
         <v>44504.41946759259</v>
@@ -6399,13 +6403,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C151" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D151" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E151">
         <v>110</v>
@@ -6417,7 +6421,7 @@
         <v>8</v>
       </c>
       <c r="H151" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J151" s="2">
         <v>44504.41946759259</v>
@@ -6428,13 +6432,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C152" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D152" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E152">
         <v>152</v>
@@ -6446,7 +6450,7 @@
         <v>1</v>
       </c>
       <c r="H152" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J152" s="2">
         <v>44504.41946759259</v>
@@ -6457,13 +6461,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C153" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D153" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E153">
         <v>163</v>
@@ -6475,7 +6479,7 @@
         <v>4</v>
       </c>
       <c r="H153" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J153" s="2">
         <v>44504.41946759259</v>
@@ -6486,13 +6490,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C154" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D154" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E154">
         <v>126</v>
@@ -6504,7 +6508,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J154" s="2">
         <v>44504.41946759259</v>
@@ -6515,13 +6519,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C155" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D155" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E155">
         <v>154</v>
@@ -6533,7 +6537,7 @@
         <v>3</v>
       </c>
       <c r="H155" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J155" s="2">
         <v>44504.41946759259</v>
@@ -6544,7 +6548,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E156">
         <v>140</v>
@@ -6556,7 +6560,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J156" s="2">
         <v>44504.41946759259</v>
@@ -6567,13 +6571,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C157" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D157" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E157">
         <v>100</v>
@@ -6585,7 +6589,7 @@
         <v>6</v>
       </c>
       <c r="H157" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J157" s="2">
         <v>44504.41946759259</v>
@@ -6596,13 +6600,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C158" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D158" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E158">
         <v>106</v>
@@ -6614,7 +6618,7 @@
         <v>1</v>
       </c>
       <c r="H158" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J158" s="2">
         <v>44504.41946759259</v>
@@ -6625,13 +6629,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C159" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D159" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E159">
         <v>107</v>
@@ -6643,7 +6647,7 @@
         <v>7</v>
       </c>
       <c r="H159" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J159" s="2">
         <v>44504.41946759259</v>
@@ -6654,13 +6658,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C160" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D160" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E160">
         <v>98</v>
@@ -6672,7 +6676,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J160" s="2">
         <v>44504.41946759259</v>
@@ -6683,13 +6687,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C161" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D161" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E161">
         <v>137</v>
@@ -6701,7 +6705,7 @@
         <v>7</v>
       </c>
       <c r="H161" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J161" s="2">
         <v>44504.41946759259</v>
@@ -6712,13 +6716,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C162" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D162" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E162">
         <v>108</v>
@@ -6730,7 +6734,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J162" s="2">
         <v>44504.41946759259</v>
@@ -6741,13 +6745,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C163" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D163" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E163">
         <v>93</v>
@@ -6759,7 +6763,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J163" s="2">
         <v>44504.41946759259</v>
@@ -6770,13 +6774,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C164" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D164" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E164">
         <v>125</v>
@@ -6788,7 +6792,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J164" s="2">
         <v>44504.41946759259</v>
@@ -6799,13 +6803,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C165" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D165" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E165">
         <v>94</v>
@@ -6817,7 +6821,7 @@
         <v>1</v>
       </c>
       <c r="H165" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J165" s="2">
         <v>44504.41946759259</v>
@@ -6828,13 +6832,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C166" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D166" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E166">
         <v>121</v>
@@ -6846,7 +6850,7 @@
         <v>8</v>
       </c>
       <c r="H166" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J166" s="2">
         <v>44504.41946759259</v>
@@ -6857,13 +6861,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C167" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D167" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E167">
         <v>96</v>
@@ -6875,7 +6879,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J167" s="2">
         <v>44504.41946759259</v>
@@ -6886,13 +6890,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C168" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D168" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E168">
         <v>86</v>
@@ -6904,7 +6908,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J168" s="2">
         <v>44504.41946759259</v>
@@ -6915,13 +6919,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C169" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D169" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E169">
         <v>128</v>
@@ -6933,7 +6937,7 @@
         <v>8</v>
       </c>
       <c r="H169" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J169" s="2">
         <v>44504.41946759259</v>
@@ -6944,7 +6948,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E170">
         <v>103</v>
@@ -6956,7 +6960,7 @@
         <v>6</v>
       </c>
       <c r="H170" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J170" s="2">
         <v>44504.41946759259</v>
@@ -6967,13 +6971,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C171" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D171" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E171">
         <v>132</v>
@@ -6985,7 +6989,7 @@
         <v>8</v>
       </c>
       <c r="H171" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J171" s="2">
         <v>44504.41946759259</v>
@@ -6996,13 +7000,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C172" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D172" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E172">
         <v>140</v>
@@ -7014,7 +7018,7 @@
         <v>7</v>
       </c>
       <c r="H172" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J172" s="2">
         <v>44504.41946759259</v>
@@ -7025,13 +7029,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C173" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D173" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E173">
         <v>194</v>
@@ -7043,7 +7047,7 @@
         <v>10</v>
       </c>
       <c r="H173" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J173" s="2">
         <v>44504.41946759259</v>
@@ -7054,13 +7058,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C174" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D174" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E174">
         <v>158</v>
@@ -7072,7 +7076,7 @@
         <v>5</v>
       </c>
       <c r="H174" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J174" s="2">
         <v>44504.41946759259</v>
@@ -7083,13 +7087,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C175" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D175" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E175">
         <v>99</v>
@@ -7101,7 +7105,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J175" s="2">
         <v>44504.41946759259</v>
@@ -7112,13 +7116,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C176" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D176" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E176">
         <v>133</v>
@@ -7130,7 +7134,7 @@
         <v>1</v>
       </c>
       <c r="H176" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J176" s="2">
         <v>44504.41946759259</v>
@@ -7141,13 +7145,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C177" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D177" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E177">
         <v>116</v>
@@ -7159,7 +7163,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J177" s="2">
         <v>44504.41946759259</v>
@@ -7170,13 +7174,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C178" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D178" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E178">
         <v>120</v>
@@ -7188,7 +7192,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J178" s="2">
         <v>44504.41946759259</v>
@@ -7199,13 +7203,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C179" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D179" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E179">
         <v>108</v>
@@ -7217,7 +7221,7 @@
         <v>8</v>
       </c>
       <c r="H179" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J179" s="2">
         <v>44504.41946759259</v>
@@ -7228,13 +7232,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C180" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D180" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E180">
         <v>105</v>
@@ -7246,7 +7250,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J180" s="2">
         <v>44504.41946759259</v>
@@ -7257,13 +7261,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C181" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D181" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E181">
         <v>122</v>
@@ -7275,7 +7279,7 @@
         <v>8</v>
       </c>
       <c r="H181" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J181" s="2">
         <v>44504.41946759259</v>
@@ -7286,13 +7290,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C182" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D182" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E182">
         <v>93</v>
@@ -7304,7 +7308,7 @@
         <v>8</v>
       </c>
       <c r="H182" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J182" s="2">
         <v>44504.41946759259</v>
@@ -7315,13 +7319,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C183" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D183" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E183">
         <v>134</v>
@@ -7333,7 +7337,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J183" s="2">
         <v>44504.41946759259</v>
@@ -7344,13 +7348,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C184" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D184" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E184">
         <v>120</v>
@@ -7362,7 +7366,7 @@
         <v>6</v>
       </c>
       <c r="H184" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J184" s="2">
         <v>44504.41946759259</v>
@@ -7373,13 +7377,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C185" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D185" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E185">
         <v>85</v>
@@ -7391,7 +7395,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J185" s="2">
         <v>44504.41946759259</v>
@@ -7402,13 +7406,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C186" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D186" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E186">
         <v>117</v>
@@ -7420,7 +7424,7 @@
         <v>8</v>
       </c>
       <c r="H186" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J186" s="2">
         <v>44504.41946759259</v>
@@ -7431,13 +7435,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C187" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D187" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E187">
         <v>144</v>
@@ -7449,7 +7453,7 @@
         <v>1</v>
       </c>
       <c r="H187" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J187" s="2">
         <v>44504.41946759259</v>
@@ -7460,13 +7464,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C188" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D188" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E188">
         <v>118</v>
@@ -7478,7 +7482,7 @@
         <v>7</v>
       </c>
       <c r="H188" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J188" s="2">
         <v>44504.41946759259</v>
@@ -7489,13 +7493,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C189" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D189" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E189">
         <v>93</v>
@@ -7507,7 +7511,7 @@
         <v>7</v>
       </c>
       <c r="H189" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J189" s="2">
         <v>44504.41946759259</v>
@@ -7518,13 +7522,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C190" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D190" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E190">
         <v>113</v>
@@ -7536,7 +7540,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J190" s="2">
         <v>44504.41946759259</v>
@@ -7547,13 +7551,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C191" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D191" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E191">
         <v>138</v>
@@ -7565,7 +7569,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J191" s="2">
         <v>44504.41946759259</v>
@@ -7576,13 +7580,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C192" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D192" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E192">
         <v>136</v>
@@ -7594,7 +7598,7 @@
         <v>7</v>
       </c>
       <c r="H192" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J192" s="2">
         <v>44504.41946759259</v>
@@ -7605,13 +7609,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C193" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D193" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E193">
         <v>115</v>
@@ -7623,7 +7627,7 @@
         <v>1</v>
       </c>
       <c r="H193" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J193" s="2">
         <v>44504.41946759259</v>
@@ -7634,13 +7638,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C194" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D194" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E194">
         <v>119</v>
@@ -7652,7 +7656,7 @@
         <v>1</v>
       </c>
       <c r="H194" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J194" s="2">
         <v>44504.41946759259</v>
@@ -7663,13 +7667,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C195" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D195" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E195">
         <v>97</v>
@@ -7681,7 +7685,7 @@
         <v>8</v>
       </c>
       <c r="H195" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J195" s="2">
         <v>44504.41946759259</v>
@@ -7692,13 +7696,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C196" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D196" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E196">
         <v>124</v>
@@ -7710,7 +7714,7 @@
         <v>8</v>
       </c>
       <c r="H196" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J196" s="2">
         <v>44504.41946759259</v>
@@ -7721,13 +7725,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C197" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D197" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E197">
         <v>98</v>
@@ -7739,7 +7743,7 @@
         <v>1</v>
       </c>
       <c r="H197" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J197" s="2">
         <v>44504.41946759259</v>
@@ -7750,13 +7754,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C198" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D198" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E198">
         <v>97</v>
@@ -7768,7 +7772,7 @@
         <v>8</v>
       </c>
       <c r="H198" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J198" s="2">
         <v>44504.41946759259</v>
@@ -7779,13 +7783,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C199" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D199" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E199">
         <v>117</v>
@@ -7797,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="H199" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J199" s="2">
         <v>44504.41946759259</v>
@@ -7808,13 +7812,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C200" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D200" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E200">
         <v>151</v>
@@ -7826,7 +7830,7 @@
         <v>8</v>
       </c>
       <c r="H200" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J200" s="2">
         <v>44504.41946759259</v>
@@ -7837,13 +7841,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C201" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D201" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E201">
         <v>101</v>
@@ -7855,7 +7859,7 @@
         <v>8</v>
       </c>
       <c r="H201" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J201" s="2">
         <v>44504.41946759259</v>
@@ -7866,13 +7870,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C202" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D202" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E202">
         <v>143</v>
@@ -7884,7 +7888,7 @@
         <v>8</v>
       </c>
       <c r="H202" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J202" s="2">
         <v>44504.41946759259</v>
@@ -7895,13 +7899,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C203" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D203" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E203">
         <v>128</v>
@@ -7913,7 +7917,7 @@
         <v>7</v>
       </c>
       <c r="H203" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J203" s="2">
         <v>44504.41946759259</v>
@@ -7924,13 +7928,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C204" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D204" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E204">
         <v>90</v>
@@ -7942,7 +7946,7 @@
         <v>1</v>
       </c>
       <c r="H204" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J204" s="2">
         <v>44504.41946759259</v>
@@ -7953,13 +7957,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C205" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D205" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E205">
         <v>134</v>
@@ -7971,7 +7975,7 @@
         <v>1</v>
       </c>
       <c r="H205" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J205" s="2">
         <v>44504.41946759259</v>
@@ -7982,13 +7986,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C206" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D206" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E206">
         <v>96</v>
@@ -8000,7 +8004,7 @@
         <v>7</v>
       </c>
       <c r="H206" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J206" s="2">
         <v>44504.41946759259</v>
@@ -8011,13 +8015,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C207" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D207" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E207">
         <v>105</v>
@@ -8029,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="H207" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J207" s="2">
         <v>44504.41946759259</v>
@@ -8040,13 +8044,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C208" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D208" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E208">
         <v>132</v>
@@ -8058,7 +8062,7 @@
         <v>1</v>
       </c>
       <c r="H208" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J208" s="2">
         <v>44504.41946759259</v>
@@ -8069,13 +8073,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C209" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D209" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E209">
         <v>124</v>
@@ -8087,7 +8091,7 @@
         <v>8</v>
       </c>
       <c r="H209" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J209" s="2">
         <v>44504.41946759259</v>
@@ -8098,7 +8102,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E210">
         <v>80</v>
@@ -8110,7 +8114,7 @@
         <v>1</v>
       </c>
       <c r="H210" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J210" s="2">
         <v>44504.41946759259</v>
@@ -8121,7 +8125,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E211">
         <v>85</v>
@@ -8133,7 +8137,7 @@
         <v>1</v>
       </c>
       <c r="H211" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J211" s="2">
         <v>44504.41946759259</v>
@@ -8144,13 +8148,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C212" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D212" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E212">
         <v>108</v>
@@ -8162,7 +8166,7 @@
         <v>8</v>
       </c>
       <c r="H212" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J212" s="2">
         <v>44504.41946759259</v>
@@ -8173,13 +8177,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C213" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D213" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E213">
         <v>110</v>
@@ -8191,7 +8195,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J213" s="2">
         <v>44504.41946759259</v>
@@ -8202,7 +8206,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E214">
         <v>90</v>
@@ -8214,7 +8218,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J214" s="2">
         <v>44504.41946759259</v>
@@ -8225,7 +8229,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E215">
         <v>120</v>
@@ -8237,7 +8241,7 @@
         <v>3</v>
       </c>
       <c r="H215" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J215" s="2">
         <v>44504.41946759259</v>
@@ -8248,7 +8252,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E216">
         <v>102</v>
@@ -8260,7 +8264,7 @@
         <v>6</v>
       </c>
       <c r="H216" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J216" s="2">
         <v>44504.41946759259</v>
@@ -8271,13 +8275,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C217" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D217" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E217">
         <v>95</v>
@@ -8289,7 +8293,7 @@
         <v>1</v>
       </c>
       <c r="H217" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J217" s="2">
         <v>44504.41946759259</v>
@@ -8300,13 +8304,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C218" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D218" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E218">
         <v>93</v>
@@ -8318,7 +8322,7 @@
         <v>1</v>
       </c>
       <c r="H218" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J218" s="2">
         <v>44504.41946759259</v>
@@ -8329,13 +8333,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C219" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D219" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E219">
         <v>115</v>
@@ -8347,7 +8351,7 @@
         <v>1</v>
       </c>
       <c r="H219" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J219" s="2">
         <v>44504.41946759259</v>
@@ -8358,13 +8362,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C220" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D220" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E220">
         <v>180</v>
@@ -8376,7 +8380,7 @@
         <v>7</v>
       </c>
       <c r="H220" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J220" s="2">
         <v>44504.41946759259</v>
@@ -8387,13 +8391,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C221" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D221" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E221">
         <v>105</v>
@@ -8405,7 +8409,7 @@
         <v>1</v>
       </c>
       <c r="H221" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J221" s="2">
         <v>44504.41946759259</v>
@@ -8416,7 +8420,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E222">
         <v>104</v>
@@ -8428,7 +8432,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J222" s="2">
         <v>44504.41946759259</v>
@@ -8439,7 +8443,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E223">
         <v>107</v>
@@ -8451,7 +8455,7 @@
         <v>1</v>
       </c>
       <c r="H223" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J223" s="2">
         <v>44504.41946759259</v>
@@ -8462,7 +8466,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E224">
         <v>133</v>
@@ -8474,7 +8478,7 @@
         <v>10</v>
       </c>
       <c r="H224" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J224" s="2">
         <v>44504.41946759259</v>
@@ -8485,7 +8489,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E225">
         <v>63</v>
@@ -8497,7 +8501,7 @@
         <v>1</v>
       </c>
       <c r="H225" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J225" s="2">
         <v>44504.41946759259</v>
@@ -8508,7 +8512,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E226">
         <v>85</v>
@@ -8520,7 +8524,7 @@
         <v>1</v>
       </c>
       <c r="H226" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J226" s="2">
         <v>44504.41946759259</v>
@@ -8531,7 +8535,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E227">
         <v>85</v>
@@ -8543,7 +8547,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J227" s="2">
         <v>44504.41946759259</v>
@@ -8554,7 +8558,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E228">
         <v>97</v>
@@ -8566,10 +8570,10 @@
         <v>8</v>
       </c>
       <c r="H228" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I228" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="J228" s="2">
         <v>44472.470752314817</v>
@@ -8580,7 +8584,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E229">
         <v>116</v>
@@ -8592,7 +8596,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J229" s="2">
         <v>44472.470752314817</v>
@@ -8603,7 +8607,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E230">
         <v>138</v>
@@ -8615,7 +8619,7 @@
         <v>10</v>
       </c>
       <c r="H230" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J230" s="2">
         <v>44472.470752314817</v>
